--- a/document/screen_design_document.xlsx
+++ b/document/screen_design_document.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/osumi/kyopuroRecordApp/document/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37BE6AA-22A8-314F-8691-1AB82EA428F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB3FE6A1-5571-B645-AB9F-5153F0361711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4960" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{79A594DB-89F1-7841-9244-7F6B74B2A7C0}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17260" firstSheet="2" activeTab="9" xr2:uid="{79A594DB-89F1-7841-9244-7F6B74B2A7C0}"/>
   </bookViews>
   <sheets>
     <sheet name="画面設計" sheetId="4" r:id="rId1"/>
@@ -22,10 +22,19 @@
     <sheet name="アカウント新規登録画面" sheetId="13" r:id="rId7"/>
     <sheet name="精進記録一覧画面" sheetId="16" r:id="rId8"/>
     <sheet name="精進記録新規登録画面" sheetId="17" r:id="rId9"/>
-    <sheet name="精進記録編集画面" sheetId="18" r:id="rId10"/>
+    <sheet name="精進記録編集画面" sheetId="19" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">画面設計!$B$8</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">アカウント新規登録画面!$A$1:$D$47</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">ホーム画面!$A$1:$D$45</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">ログイン画面!$A$1:$D$47</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">画面設計!$A$9:$B$16</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">画面遷移図!$A$1:$G$18</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">共通フッター!$A$1:$D$47</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">共通ヘッダー!$A$1:$D$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">精進記録一覧画面!$A$1:$K$88</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">精進記録新規登録画面!$A$1:$D$73</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="9">精進記録編集画面!$A$1:$D$73</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -46,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="180">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="3">
@@ -87,9 +96,6 @@
   <si>
     <t>イベント一覧</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>画面基本設計</t>
   </si>
   <si>
     <t>更新日</t>
@@ -900,16 +906,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>一括削除するためのボタン</t>
-    <rPh sb="0" eb="2">
-      <t>イッカテゥ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>サクジョスルタメノボ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>問題番号を表示する
 例：ABC129C</t>
     <rPh sb="0" eb="2">
@@ -1016,119 +1012,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>画面ワイヤーフレーム(一括削除時)</t>
-    <rPh sb="0" eb="2">
-      <t>ガメn</t>
-    </rPh>
-    <rPh sb="11" eb="15">
-      <t>イッカテゥ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ツウジョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>チェック</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>✅</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>□</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>一括削除選択ボタン</t>
-    <rPh sb="0" eb="4">
-      <t>イッカテゥ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>一括削除する項目を選択するためのボタン</t>
-    <rPh sb="0" eb="2">
-      <t>イッカテゥ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>サクジョスルタメノボ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>チェックボックス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>削除ボタン</t>
     <rPh sb="0" eb="2">
       <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>一括削除する項目を選択するためのボックス</t>
-    <rPh sb="0" eb="4">
-      <t>イッカテゥ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>一括削除する項目をチェック入れる</t>
-    <rPh sb="0" eb="1">
-      <t>イッカテゥ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>コウモク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>削除ボタンを押すとチェック入れたデータを一括で削除する</t>
-    <rPh sb="0" eb="2">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>オス</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>イッカテゥ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>一括削除選択ボタンを押すとデータ分チェックボックスと削除ボタンが出てくる</t>
-    <rPh sb="0" eb="4">
-      <t>イッカテゥ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>オス</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>デテキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1498,16 +1384,227 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>条件を満たした場合は修正して登録する</t>
+    <t>削除リンク</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面ワイヤーフレーム(削除選択時)</t>
+    <rPh sb="0" eb="2">
+      <t>ガメn</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>j</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>v</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対応するデータを削除するためのリンク</t>
+    <rPh sb="0" eb="2">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除確認ポップアップ</t>
+    <rPh sb="0" eb="4">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポップアップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除する項目を確認するポップアップ</t>
+    <rPh sb="0" eb="2">
+      <t>イッカテゥ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除するためのボタン</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョスルタメノボ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除確認ポップアップに遷移する</t>
+    <rPh sb="0" eb="1">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除ボタンを押すと選択したデータを削除する</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オス</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カテゴリ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>動的計画法</t>
+    <rPh sb="0" eb="5">
+      <t>ドウテキケイク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UnionFind</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>幅優先探索</t>
+    <rPh sb="0" eb="5">
+      <t>ハバ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>二分探索</t>
+    <rPh sb="0" eb="4">
+      <t>ニブn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ構造やアルゴリズムでラベル
+付けを行う</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カテゴリラベル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カテゴリテキスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カテゴリを入力する欄</t>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ラn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力文字数が20文字以内かバリデーションチェックを行う
+バリデーションにかかったら
+「カテゴリは20文字以内で設定してください」とエラー表示する</t>
+    <rPh sb="0" eb="5">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>モジイナ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>オコナウ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>イナイ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>精進記録編集画面</t>
+    <rPh sb="0" eb="2">
+      <t>ショウジn</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キロク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ベテゥ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>精進記録を編集する</t>
+    <rPh sb="0" eb="4">
+      <t>ショウジn</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>条件を満たした場合は登録する</t>
     <rPh sb="0" eb="2">
       <t>ジョウケn</t>
     </rPh>
     <rPh sb="10" eb="12">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
       <t>シンキ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面基本設計</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1725,14 +1822,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1746,9 +1840,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -1786,14 +1877,20 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1828,9 +1925,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1839,6 +1933,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4086,16 +4192,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1485900</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>368300</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1828800</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4110,7 +4216,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4368800" y="6578600"/>
+          <a:off x="4330700" y="6616700"/>
           <a:ext cx="342900" cy="330200"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -4166,16 +4272,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1498600</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>368300</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>215900</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1841500</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4190,7 +4296,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4368800" y="6235700"/>
+          <a:off x="4343400" y="6286500"/>
           <a:ext cx="342900" cy="330200"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -6125,7 +6231,7 @@
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -6193,7 +6299,7 @@
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>14111</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>241300</xdr:rowOff>
@@ -6260,16 +6366,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1862667</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4234</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>169333</xdr:rowOff>
+      <xdr:rowOff>28222</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>578556</xdr:colOff>
+      <xdr:colOff>874889</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>211666</xdr:rowOff>
+      <xdr:rowOff>141111</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6284,8 +6390,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8777111" y="3725333"/>
-          <a:ext cx="860778" cy="296333"/>
+          <a:off x="7144456" y="3584222"/>
+          <a:ext cx="870655" cy="366889"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -6346,102 +6452,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>945445</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>183442</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1044223</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>155221</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>691445</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>239889</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="角丸四角形 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45006B9F-9070-BB40-AFD9-02FD243ADC53}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9144001" y="3739442"/>
-          <a:ext cx="1128888" cy="310447"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>一括削除選択</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>268112</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>239888</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1255889</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>56443</xdr:rowOff>
+      <xdr:colOff>1354667</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>225776</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6456,8 +6476,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2737556" y="3287888"/>
-          <a:ext cx="1806222" cy="578555"/>
+          <a:off x="1044223" y="2949221"/>
+          <a:ext cx="2483555" cy="578555"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -6508,16 +6528,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>465668</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>804335</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>98778</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>808568</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1147235</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>174978</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6532,7 +6552,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2723446" y="3048001"/>
+          <a:off x="2977446" y="2892778"/>
           <a:ext cx="342900" cy="330200"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -6583,16 +6603,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1072444</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>578553</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>155222</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1415344</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>921453</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>231422</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6607,7 +6627,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9228666" y="3429000"/>
+          <a:off x="1665109" y="3965222"/>
           <a:ext cx="342900" cy="330200"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -6664,15 +6684,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>53622</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>110068</xdr:rowOff>
+      <xdr:colOff>25399</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>396522</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>186268</xdr:rowOff>
+      <xdr:colOff>368299</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>228601</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6687,7 +6707,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8209844" y="3412068"/>
+          <a:off x="7165621" y="3200401"/>
           <a:ext cx="342900" cy="330200"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -6744,15 +6764,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
+      <xdr:colOff>649113</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>141111</xdr:rowOff>
+      <xdr:rowOff>155222</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>596900</xdr:colOff>
+      <xdr:colOff>992013</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>217311</xdr:rowOff>
+      <xdr:rowOff>231422</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6767,7 +6787,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3019778" y="3951111"/>
+          <a:off x="2822224" y="3965222"/>
           <a:ext cx="342900" cy="330200"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -6824,13 +6844,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>606778</xdr:colOff>
+      <xdr:colOff>818445</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>183445</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>949678</xdr:colOff>
+      <xdr:colOff>1161345</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>5645</xdr:rowOff>
     </xdr:to>
@@ -6847,7 +6867,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8763000" y="3993445"/>
+          <a:off x="9045223" y="3993445"/>
           <a:ext cx="342900" cy="330200"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -6904,15 +6924,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>745068</xdr:colOff>
+      <xdr:colOff>589846</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>166511</xdr:rowOff>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1087968</xdr:colOff>
+      <xdr:colOff>932746</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>242711</xdr:rowOff>
+      <xdr:rowOff>228599</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6927,7 +6947,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6502401" y="3976511"/>
+          <a:off x="7109179" y="3962399"/>
           <a:ext cx="342900" cy="330200"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -6984,13 +7004,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>587023</xdr:colOff>
+      <xdr:colOff>460024</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>149578</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>929923</xdr:colOff>
+      <xdr:colOff>802924</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>225778</xdr:rowOff>
     </xdr:to>
@@ -7007,7 +7027,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4594579" y="3959578"/>
+          <a:off x="5596468" y="3959578"/>
           <a:ext cx="342900" cy="330200"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -7064,15 +7084,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>753534</xdr:colOff>
+      <xdr:colOff>499534</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>160867</xdr:rowOff>
+      <xdr:rowOff>146756</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1096434</xdr:colOff>
+      <xdr:colOff>842434</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>237067</xdr:rowOff>
+      <xdr:rowOff>222956</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7087,7 +7107,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3011312" y="3970867"/>
+          <a:off x="4168423" y="3956756"/>
           <a:ext cx="342900" cy="330200"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -7144,15 +7164,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>747888</xdr:colOff>
+      <xdr:colOff>493888</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>197555</xdr:rowOff>
+      <xdr:rowOff>183443</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1090788</xdr:colOff>
+      <xdr:colOff>836788</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>19755</xdr:rowOff>
+      <xdr:rowOff>5643</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7167,7 +7187,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10329332" y="4007555"/>
+          <a:off x="10865555" y="3993443"/>
           <a:ext cx="342900" cy="330200"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -7229,7 +7249,7 @@
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -7297,7 +7317,7 @@
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>14111</xdr:colOff>
       <xdr:row>59</xdr:row>
       <xdr:rowOff>241300</xdr:rowOff>
@@ -7365,15 +7385,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1862667</xdr:colOff>
+      <xdr:colOff>1697567</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>169333</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>578556</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>211666</xdr:rowOff>
+      <xdr:colOff>860778</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>28222</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7388,8 +7408,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7916334" y="3725333"/>
-          <a:ext cx="860778" cy="296333"/>
+          <a:off x="7130345" y="11091333"/>
+          <a:ext cx="870655" cy="366889"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -7429,92 +7449,6 @@
               </a:solidFill>
             </a:rPr>
             <a:t>新規登録</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>945445</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>183442</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>663223</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>28221</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="角丸四角形 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14C08414-866E-384F-A229-B8AE59C1A5BA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9144001" y="11105442"/>
-          <a:ext cx="1100666" cy="352779"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>一括削除選択</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
@@ -7612,23 +7546,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>733778</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>225778</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>28223</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>42334</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>169333</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>42334</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="角丸四角形 39">
+        <xdr:cNvPr id="34" name="正方形/長方形 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BF0BF4A-F7B2-AF03-2C44-F8CAD4CABFFA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DB56E5B-881C-3C04-149D-4DDA94950E1D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7636,20 +7570,17 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10315222" y="13179778"/>
-          <a:ext cx="691445" cy="451555"/>
+          <a:off x="0" y="8918223"/>
+          <a:ext cx="15903222" cy="6364111"/>
         </a:xfrm>
-        <a:prstGeom prst="roundRect">
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FF0000"/>
+          <a:schemeClr val="tx1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
         </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -7672,14 +7603,309 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1241777</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>42333</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>183445</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>155222</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="角丸四角形 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EEF5CEB-32B4-9946-7B11-2D364CF73ABB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5291666" y="8932333"/>
+          <a:ext cx="4176890" cy="2398889"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1500">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>下記の記録を削除しますか？</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>カテゴリ：動的計画法</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>問題番号：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ABC129C</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>問題名：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Typical Stairs</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>コードリンク：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>https://aaaaaaaa</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>メモ：典型</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>dp</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>、フィボナッチ数列</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>解いた日：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2020/3/19</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1199443</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>211667</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1778001</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>56444</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="角丸四角形 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C653F0C2-C13C-A142-96E2-412F4495F3C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8339665" y="10879667"/>
+          <a:ext cx="578558" cy="352777"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>削除</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -7688,22 +7914,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>70555</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>183444</xdr:rowOff>
+      <xdr:colOff>366889</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>169332</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>507999</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>14111</xdr:rowOff>
+      <xdr:colOff>818445</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28221</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="角丸四角形 40">
+        <xdr:cNvPr id="37" name="角丸四角形 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F29B151-AA7B-3F4E-8BB2-BB48B192C78F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1038C777-33C0-CE40-BC25-682CEF5D2C7C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7711,8 +7937,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12121444" y="13137444"/>
-          <a:ext cx="437444" cy="338667"/>
+          <a:off x="12121445" y="3979332"/>
+          <a:ext cx="451556" cy="366889"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -7753,7 +7979,7 @@
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>11</a:t>
+            <a:t>10</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
             <a:solidFill>
@@ -7767,23 +7993,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>519287</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>110066</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>324555</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>169332</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>903110</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>155222</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>776111</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>28221</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="角丸四角形 41">
+        <xdr:cNvPr id="38" name="角丸四角形 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0ED30C2E-2ECB-C84B-9CD2-E024F0AD4DB9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6C08B16-637C-104C-B470-73B115433FC2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7791,8 +8017,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1605843" y="11286066"/>
-          <a:ext cx="383823" cy="299156"/>
+          <a:off x="8551333" y="9059332"/>
+          <a:ext cx="451556" cy="366889"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -7833,7 +8059,87 @@
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>10</a:t>
+            <a:t>11</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1425220</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>70555</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1876776</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>183444</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="角丸四角形 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD4958C5-2364-9345-8521-1D3A511C5CDC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9651998" y="10484555"/>
+          <a:ext cx="451556" cy="366889"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>12</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
             <a:solidFill>
@@ -7922,13 +8228,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>241300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7995,13 +8301,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1816100</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2070100</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8061,13 +8367,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1816100</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2032000</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8127,13 +8433,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1384300</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8200,13 +8506,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1397000</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8273,13 +8579,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>927100</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1790700</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>215900</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8348,13 +8654,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8407,13 +8713,18 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>１</a:t>
+            <a:t>4</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -8423,13 +8734,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>241300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8487,7 +8798,7 @@
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>3</a:t>
+            <a:t>5</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
             <a:solidFill>
@@ -8503,13 +8814,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8567,87 +8878,7 @@
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>11</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1143000</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1485900</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="角丸四角形 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{518ECFE6-11E4-DC4C-BAC5-8C893A53DADE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3632200" y="3276600"/>
-          <a:ext cx="342900" cy="330200"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>2</a:t>
+            <a:t>13</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
             <a:solidFill>
@@ -8663,13 +8894,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8727,7 +8958,7 @@
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>4</a:t>
+            <a:t>6</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
             <a:solidFill>
@@ -8743,13 +8974,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1778000</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>215900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2032000</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8809,13 +9040,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1778000</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2070100</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8875,13 +9106,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>241300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1346200</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8948,13 +9179,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1358900</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9021,13 +9252,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9085,7 +9316,7 @@
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>5</a:t>
+            <a:t>7</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
             <a:solidFill>
@@ -9101,13 +9332,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>673100</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>203200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9165,7 +9396,7 @@
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>7</a:t>
+            <a:t>9</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
             <a:solidFill>
@@ -9181,13 +9412,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>241300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9245,7 +9476,7 @@
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>6</a:t>
+            <a:t>8</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
             <a:solidFill>
@@ -9261,13 +9492,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>203200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9283,8 +9514,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2705100" y="5791200"/>
-          <a:ext cx="342900" cy="330200"/>
+          <a:off x="2705100" y="6819900"/>
+          <a:ext cx="444500" cy="330200"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -9325,7 +9556,7 @@
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>8</a:t>
+            <a:t>10</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
             <a:solidFill>
@@ -9341,13 +9572,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1790700</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1930400</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9419,13 +9650,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1371600</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9492,13 +9723,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1193800</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1536700</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:colOff>1689100</xdr:colOff>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9514,8 +9745,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3683000" y="5689600"/>
-          <a:ext cx="342900" cy="330200"/>
+          <a:off x="3683000" y="6718300"/>
+          <a:ext cx="495300" cy="330200"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -9556,7 +9787,7 @@
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>9</a:t>
+            <a:t>11</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
             <a:solidFill>
@@ -9572,13 +9803,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>876300</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>241300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9636,7 +9867,7 @@
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>10</a:t>
+            <a:t>12</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
             <a:solidFill>
@@ -9652,13 +9883,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>965200</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9722,13 +9953,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>939800</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1498600</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9792,13 +10023,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1092200</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1651000</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9862,13 +10093,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1041400</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1600200</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>215900</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9932,13 +10163,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1016000</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>241300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1574800</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10002,13 +10233,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1143000</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10066,7 +10297,7 @@
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>13</a:t>
+            <a:t>15</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
             <a:solidFill>
@@ -10082,13 +10313,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>215900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>889000</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10146,7 +10377,7 @@
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>12</a:t>
+            <a:t>14</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
             <a:solidFill>
@@ -10168,7 +10399,7 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1502833</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>121355</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10302,13 +10533,457 @@
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>14</a:t>
+            <a:t>16</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
             <a:solidFill>
               <a:schemeClr val="bg1"/>
             </a:solidFill>
           </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1790700</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2044700</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="正方形/長方形 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{449B5F1B-666D-D849-A78A-6544CF74046D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4279900" y="3759200"/>
+          <a:ext cx="2108200" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1358900</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="正方形/長方形 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3892D32-2126-F24B-A176-53BF81C98611}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2628900" y="3784600"/>
+          <a:ext cx="1219200" cy="292100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>カテゴリ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="角丸四角形 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45F321D9-4F66-DF47-8A4C-7453F2B781F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2641600" y="3454400"/>
+          <a:ext cx="342900" cy="330200"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>１</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="角丸四角形 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE3AF900-2499-8F48-9F31-11A51DF5D1DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4559300" y="3390900"/>
+          <a:ext cx="342900" cy="330200"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1117600</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1460500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="角丸四角形 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEAC6E8C-D318-DD4F-8869-7EAF7FDEEDB7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3606800" y="3378200"/>
+          <a:ext cx="342900" cy="330200"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>939800</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1498600</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>254000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="角丸四角形 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5B16398-EE5F-8242-846E-0743C4CBB740}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3429000" y="3784600"/>
+          <a:ext cx="558800" cy="279400"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>必須</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -10337,7 +11012,7 @@
         <xdr:cNvPr id="2" name="正方形/長方形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF0C130D-B90E-4241-9337-EAB1E9145F49}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16562F07-673B-714B-B103-707897D86FD6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10391,13 +11066,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>241300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10405,7 +11080,7 @@
         <xdr:cNvPr id="3" name="正方形/長方形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EBB1BFB-6830-9340-B4C4-F10BEC6FB09D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30716652-364B-CF4C-A9F9-9C6480789AE4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10413,7 +11088,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="8915400"/>
+          <a:off x="0" y="9944100"/>
           <a:ext cx="9080500" cy="723900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10464,13 +11139,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1816100</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2070100</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10478,7 +11153,7 @@
         <xdr:cNvPr id="4" name="正方形/長方形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15A90BE5-28F5-EC4B-93EE-572FBC493151}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D437F9D3-41F7-584D-98FF-43626D50BE8D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10486,7 +11161,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4305300" y="3657600"/>
+          <a:off x="4305300" y="4686300"/>
           <a:ext cx="2108200" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10530,13 +11205,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1816100</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2032000</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10544,7 +11219,7 @@
         <xdr:cNvPr id="5" name="正方形/長方形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81891EB0-EC89-5D40-B302-21FBAA4195E1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29282E97-E34B-1B4A-9EFF-1B6DF6138936}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10552,7 +11227,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4305300" y="4457700"/>
+          <a:off x="4305300" y="5486400"/>
           <a:ext cx="2070100" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10596,13 +11271,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1384300</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10610,7 +11285,7 @@
         <xdr:cNvPr id="6" name="正方形/長方形 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66B5D08E-F3C4-6046-B9DC-BBBC379DE63B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76E578F2-7B86-9246-97A4-B0F7B3DCCE8B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10618,7 +11293,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2654300" y="3683000"/>
+          <a:off x="2654300" y="4711700"/>
           <a:ext cx="1219200" cy="292100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10669,13 +11344,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1397000</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10683,7 +11358,7 @@
         <xdr:cNvPr id="7" name="正方形/長方形 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0EC74D3-2DEA-EE46-9976-1B13711F8B07}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC65E214-EC06-3640-ADD8-8DE365C1D828}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10691,7 +11366,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2679700" y="4432300"/>
+          <a:off x="2679700" y="5461000"/>
           <a:ext cx="1206500" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10742,13 +11417,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>927100</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1790700</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>215900</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10756,7 +11431,7 @@
         <xdr:cNvPr id="8" name="角丸四角形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E15F1F1C-5240-B24C-B13A-049BA48385B1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8100C9A0-06D0-7F40-911E-31D832C1F543}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10764,7 +11439,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5270500" y="8255000"/>
+          <a:off x="5270500" y="9283700"/>
           <a:ext cx="863600" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -10817,13 +11492,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10831,7 +11506,7 @@
         <xdr:cNvPr id="9" name="角丸四角形 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEA5C71C-7968-3E46-A75B-08DDCAD30B1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCD727FF-7A87-F34C-9545-6B278E995999}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10839,7 +11514,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2667000" y="3352800"/>
+          <a:off x="2667000" y="4381500"/>
           <a:ext cx="342900" cy="330200"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -10876,13 +11551,18 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>１</a:t>
+            <a:t>4</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -10892,13 +11572,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>241300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10906,7 +11586,7 @@
         <xdr:cNvPr id="10" name="角丸四角形 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E1746AD-41FD-864B-AF6B-E81EA23DFC6B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE1A4D3C-D4C7-2D4C-BB86-F7BE35D23D68}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10914,7 +11594,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4584700" y="3289300"/>
+          <a:off x="4584700" y="4318000"/>
           <a:ext cx="342900" cy="330200"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -10956,7 +11636,7 @@
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>3</a:t>
+            <a:t>5</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
             <a:solidFill>
@@ -10972,13 +11652,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10986,7 +11666,7 @@
         <xdr:cNvPr id="11" name="角丸四角形 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AE0D3CD-E22A-EB4C-8A99-A6D2712B7D08}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D58348AB-D629-B840-B386-78D142CFFB05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10994,7 +11674,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2832100" y="6794500"/>
+          <a:off x="2832100" y="7823200"/>
           <a:ext cx="381000" cy="317500"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -11036,7 +11716,7 @@
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>11</a:t>
+            <a:t>13</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
             <a:solidFill>
@@ -11051,22 +11731,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1143000</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1485900</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="12" name="角丸四角形 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0255FF0-DCDB-FC4E-99DC-02601F01D8DA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8603BFD-AFC8-E040-943F-A853917E368C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11074,7 +11754,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3632200" y="3276600"/>
+          <a:off x="2705100" y="5156200"/>
           <a:ext cx="342900" cy="330200"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -11116,87 +11796,7 @@
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>2</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="角丸四角形 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65C4A6ED-1D99-4B4C-8774-76A57281767D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2705100" y="4127500"/>
-          <a:ext cx="342900" cy="330200"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>4</a:t>
+            <a:t>6</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
             <a:solidFill>
@@ -11212,21 +11812,21 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1778000</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>215900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2032000</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="正方形/長方形 13">
+        <xdr:cNvPr id="13" name="正方形/長方形 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1434EA3C-53E6-EB40-B2B0-B692C0F71E71}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA0738E5-C62F-1044-B815-40404152B97D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11234,7 +11834,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4267200" y="5295900"/>
+          <a:off x="4267200" y="6324600"/>
           <a:ext cx="2108200" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11278,21 +11878,21 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1778000</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2070100</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="正方形/長方形 14">
+        <xdr:cNvPr id="14" name="正方形/長方形 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0F49E12-05F9-F041-8E58-413BD0074320}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A218A987-028B-514C-BB54-B65CD8455253}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11300,7 +11900,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4267200" y="6096000"/>
+          <a:off x="4267200" y="7124700"/>
           <a:ext cx="2146300" cy="685800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11344,21 +11944,21 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>241300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1346200</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="正方形/長方形 15">
+        <xdr:cNvPr id="15" name="正方形/長方形 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAD988C6-3C04-B940-AA63-D6126943768D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91F4192E-27B2-1746-82A1-E2BCD4363B72}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11366,7 +11966,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2616200" y="5321300"/>
+          <a:off x="2616200" y="6350000"/>
           <a:ext cx="1219200" cy="292100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11417,21 +12017,21 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1358900</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="正方形/長方形 16">
+        <xdr:cNvPr id="16" name="正方形/長方形 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{305242E4-C214-914C-8FB3-E5B31D130575}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DC0914F-D1BF-3940-AB47-3375BC062457}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11439,7 +12039,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2641600" y="6070600"/>
+          <a:off x="2641600" y="7099300"/>
           <a:ext cx="1206500" cy="558800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11490,21 +12090,21 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="角丸四角形 17">
+        <xdr:cNvPr id="17" name="角丸四角形 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C839816E-4F5D-7046-ADF0-FD474CBFE8CC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A111647-50DA-424E-A324-7812C02B465B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11512,7 +12112,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4648200" y="4127500"/>
+          <a:off x="4648200" y="5156200"/>
           <a:ext cx="342900" cy="330200"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -11554,7 +12154,7 @@
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>5</a:t>
+            <a:t>7</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
             <a:solidFill>
@@ -11570,21 +12170,21 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>673100</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>203200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="角丸四角形 18">
+        <xdr:cNvPr id="18" name="角丸四角形 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{526A7ED5-14BD-5F41-81F6-576EF0B07492}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5925C13-B9CC-C64C-AAE9-B8821F0E3A61}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11592,7 +12192,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4673600" y="4953000"/>
+          <a:off x="4673600" y="5981700"/>
           <a:ext cx="342900" cy="330200"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -11634,7 +12234,7 @@
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>7</a:t>
+            <a:t>9</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
             <a:solidFill>
@@ -11650,21 +12250,21 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>241300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="角丸四角形 19">
+        <xdr:cNvPr id="19" name="角丸四角形 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C35C8A1-E8D8-2E4A-8A8B-572875685E04}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD022647-B1E9-5246-AC95-5A4216835D95}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11672,7 +12272,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2755900" y="5067300"/>
+          <a:off x="2755900" y="6096000"/>
           <a:ext cx="342900" cy="330200"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -11714,7 +12314,7 @@
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>6</a:t>
+            <a:t>8</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
             <a:solidFill>
@@ -11730,21 +12330,21 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>203200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="角丸四角形 20">
+        <xdr:cNvPr id="20" name="角丸四角形 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF7E4873-6031-A542-BFDA-4E7DB38B514D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{904CE701-AE4D-2942-B988-BD9090E5A369}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11752,8 +12352,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2705100" y="5791200"/>
-          <a:ext cx="342900" cy="330200"/>
+          <a:off x="2705100" y="6819900"/>
+          <a:ext cx="444500" cy="330200"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -11794,7 +12394,7 @@
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>8</a:t>
+            <a:t>10</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
             <a:solidFill>
@@ -11810,21 +12410,21 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1790700</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1930400</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="正方形/長方形 21">
+        <xdr:cNvPr id="21" name="正方形/長方形 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A42C63C9-AB77-AA41-978F-D0D099C5260C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37340C67-BF29-5046-B7AD-A35FB235A612}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11832,7 +12432,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4279900" y="7150100"/>
+          <a:off x="4279900" y="8178800"/>
           <a:ext cx="1993900" cy="279400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11888,21 +12488,21 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1371600</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="正方形/長方形 22">
+        <xdr:cNvPr id="22" name="正方形/長方形 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C454CEFC-B5F6-1045-8D0C-CBA7114380E6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0F99F61-4831-2B4B-8199-02B857CCDB73}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11910,7 +12510,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2654300" y="7124700"/>
+          <a:off x="2654300" y="8153400"/>
           <a:ext cx="1206500" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11961,21 +12561,21 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1193800</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1536700</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:colOff>1689100</xdr:colOff>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="角丸四角形 23">
+        <xdr:cNvPr id="23" name="角丸四角形 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F45222BA-8297-B342-A70C-683BFE23CD65}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BA321C7-309E-5040-AEDD-0D249C5673A8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11983,8 +12583,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3683000" y="5689600"/>
-          <a:ext cx="342900" cy="330200"/>
+          <a:off x="3683000" y="6718300"/>
+          <a:ext cx="495300" cy="330200"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -12025,7 +12625,7 @@
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>9</a:t>
+            <a:t>11</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
             <a:solidFill>
@@ -12041,21 +12641,21 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>876300</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>241300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="角丸四角形 24">
+        <xdr:cNvPr id="24" name="角丸四角形 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97D12027-A89D-C547-B888-CEA684BD1F41}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18346680-C3DE-2C48-95B8-7FE376EEF1EC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12063,7 +12663,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4800600" y="5753100"/>
+          <a:off x="4800600" y="6781800"/>
           <a:ext cx="419100" cy="330200"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -12105,7 +12705,7 @@
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>10</a:t>
+            <a:t>12</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
             <a:solidFill>
@@ -12121,21 +12721,21 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>965200</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="角丸四角形 25">
+        <xdr:cNvPr id="25" name="角丸四角形 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA7A8065-B71C-1B42-88F9-A4D37353E0F9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10A0074C-A762-7345-8630-B59B529B643B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12143,7 +12743,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3454400" y="3683000"/>
+          <a:off x="3454400" y="4711700"/>
           <a:ext cx="558800" cy="279400"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -12191,21 +12791,21 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>939800</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1498600</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="角丸四角形 26">
+        <xdr:cNvPr id="26" name="角丸四角形 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5FC77E7-B094-E647-9158-88F181787F00}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47CE69AB-0550-274E-B5EE-FA92DA7CF558}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12213,7 +12813,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3429000" y="4394200"/>
+          <a:off x="3429000" y="5422900"/>
           <a:ext cx="558800" cy="279400"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -12261,21 +12861,21 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1092200</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1651000</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="角丸四角形 27">
+        <xdr:cNvPr id="27" name="角丸四角形 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB0107D9-7E6B-A04C-B64F-9014B34E4433}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F79940B-5608-7C4B-917A-BA8BA33C5D23}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12283,7 +12883,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3581400" y="5308600"/>
+          <a:off x="3581400" y="6337300"/>
           <a:ext cx="558800" cy="279400"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -12331,21 +12931,21 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1041400</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1600200</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>215900</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="角丸四角形 28">
+        <xdr:cNvPr id="28" name="角丸四角形 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17971D16-7840-9A4C-9F0C-167698ABFA69}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8575C6D-1183-D143-B46F-49CD8709DCCF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12353,7 +12953,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3530600" y="6032500"/>
+          <a:off x="3530600" y="7061200"/>
           <a:ext cx="558800" cy="279400"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -12401,21 +13001,21 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1016000</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>241300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1574800</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="角丸四角形 29">
+        <xdr:cNvPr id="29" name="角丸四角形 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1157ACFD-33C3-E04A-BD2A-F0BB36839CB0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63A91CAF-EE90-8544-A0BF-D9FA3C6F50C6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12423,7 +13023,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3505200" y="7099300"/>
+          <a:off x="3505200" y="8128000"/>
           <a:ext cx="558800" cy="279400"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -12471,21 +13071,21 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1143000</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="角丸四角形 30">
+        <xdr:cNvPr id="30" name="角丸四角形 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76F289A7-D4C6-EF4F-B8F2-A50B91A85811}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD3BD322-4589-034F-B6DC-4F676CC28471}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12493,7 +13093,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5486400" y="7962900"/>
+          <a:off x="5486400" y="8991600"/>
           <a:ext cx="381000" cy="317500"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -12535,7 +13135,7 @@
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>13</a:t>
+            <a:t>15</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
             <a:solidFill>
@@ -12551,21 +13151,21 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>215900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>889000</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="角丸四角形 31">
+        <xdr:cNvPr id="31" name="角丸四角形 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB93EE91-7921-1B48-B2E0-CCF73BC8DC86}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4CE3CE8-9E9F-3646-BF1F-ECF6F41DFAC0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12573,7 +13173,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4851400" y="6819900"/>
+          <a:off x="4851400" y="7848600"/>
           <a:ext cx="381000" cy="317500"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -12615,7 +13215,7 @@
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>12</a:t>
+            <a:t>14</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
             <a:solidFill>
@@ -12637,15 +13237,15 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1502833</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>121355</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="角丸四角形 32">
+        <xdr:cNvPr id="32" name="角丸四角形 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E84BDAC-A361-9E43-B431-D7317DAA59E2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B98B1A0-D54D-2A46-9DF9-D56D41C06134}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12654,7 +13254,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1536700" y="2590800"/>
-          <a:ext cx="2455333" cy="578555"/>
+          <a:ext cx="2455333" cy="1607255"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -12718,10 +13318,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="角丸四角形 33">
+        <xdr:cNvPr id="33" name="角丸四角形 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0B4F180-1E70-EB46-B201-7B1705B1E5C6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A00EB645-370B-E643-8119-6B933E231A08}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12771,13 +13371,457 @@
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>14</a:t>
+            <a:t>16</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
             <a:solidFill>
               <a:schemeClr val="bg1"/>
             </a:solidFill>
           </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1790700</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2044700</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="正方形/長方形 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{318D8396-E6D3-E941-9703-27A53CBD188C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4279900" y="3759200"/>
+          <a:ext cx="2108200" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1358900</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="正方形/長方形 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DC95D4F-1BCA-0942-9183-5707A544B55D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2628900" y="3784600"/>
+          <a:ext cx="1219200" cy="292100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>カテゴリ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="角丸四角形 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00ACE9AF-CBB1-E640-98D7-6399201318BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2641600" y="3454400"/>
+          <a:ext cx="342900" cy="330200"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>１</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="角丸四角形 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C792FD6A-A358-0D47-8A3B-A694499E958F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4559300" y="3390900"/>
+          <a:ext cx="342900" cy="330200"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1117600</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1460500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="角丸四角形 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58CBDF9D-BC8C-A549-A4DC-BBD76E7C56BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3606800" y="3378200"/>
+          <a:ext cx="342900" cy="330200"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>939800</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1498600</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>254000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="角丸四角形 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7537C1E5-B22A-4F4E-8B10-4E44CCC589A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3429000" y="3784600"/>
+          <a:ext cx="558800" cy="279400"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>必須</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -13115,10 +14159,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD139898-D56E-AE4F-8048-1EF993F828F9}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A9:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -13126,52 +14170,56 @@
     <col min="2" max="2" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30">
-      <c r="A1" s="2" t="s">
+    <row r="9" spans="1:2" ht="30">
+      <c r="A9" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="B9" s="40"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="4">
+        <v>45109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="5">
-        <v>45109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5">
+      <c r="B16" s="4">
         <v>45111</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A9:B9"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -13179,11 +14227,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0406466E-5335-2046-BCA1-1A09A1E13A40}">
-  <dimension ref="A1:D66"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A558BC6-FCEE-BC41-A9D0-AC8F65221FBB}">
+  <dimension ref="A1:D73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J65" sqref="J65"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -13198,7 +14246,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>134</v>
+        <v>176</v>
       </c>
       <c r="C1" s="25"/>
       <c r="D1" s="26"/>
@@ -13210,7 +14258,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="24" t="s">
-        <v>135</v>
+        <v>177</v>
       </c>
       <c r="B4" s="25"/>
       <c r="C4" s="25"/>
@@ -13275,7 +14323,7 @@
       <c r="C15" s="30"/>
       <c r="D15" s="30"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" ht="21" customHeight="1">
       <c r="A16" s="29"/>
       <c r="B16" s="30"/>
       <c r="C16" s="30"/>
@@ -13408,327 +14456,393 @@
       <c r="D37" s="30"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="31"/>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
+      <c r="A38" s="29"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="29"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="29"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="29"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" t="s">
+      <c r="A42" s="31"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="32"/>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="1" t="s">
+    <row r="47" spans="1:4">
+      <c r="A47" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="1">
-        <v>1</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="21">
-      <c r="A45" s="1">
-        <v>2</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="1">
-        <v>3</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="1">
-        <v>4</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="D47" s="1" t="s">
-        <v>105</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="21">
       <c r="A49" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>105</v>
+        <v>22</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D50" s="22" t="s">
-        <v>152</v>
+        <v>23</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="21">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D52" s="6" t="s">
-        <v>153</v>
+      <c r="D52" s="1" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D53" s="22" t="s">
-        <v>154</v>
+        <v>22</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="1">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="1">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D55" s="22" t="s">
-        <v>155</v>
+        <v>22</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="1">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>166</v>
+        <v>23</v>
+      </c>
+      <c r="D56" s="18" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="1">
+        <v>10</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="21">
+      <c r="A58" s="1">
+        <v>11</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="1">
+        <v>12</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D59" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="1">
+        <v>13</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="1">
         <v>14</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="63">
-      <c r="A61" s="1">
-        <v>3</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>138</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="63">
+        <v>110</v>
+      </c>
+      <c r="D61" s="18" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D62" s="6" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="78" customHeight="1">
+      <c r="D62" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1">
+        <v>16</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="63">
+      <c r="A67" s="1">
+        <v>3</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="63">
+      <c r="A68" s="1">
+        <v>5</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="63">
+      <c r="A69" s="1">
         <v>7</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B69" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="78" customHeight="1">
+      <c r="A70" s="1">
+        <v>9</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="78" customHeight="1">
+      <c r="A71" s="1">
+        <v>12</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D71" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C63" s="1" t="s">
+    </row>
+    <row r="72" spans="1:4" ht="78" customHeight="1">
+      <c r="A72" s="1">
+        <v>14</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="21">
+      <c r="A73" s="1">
+        <v>15</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D63" s="6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="78" customHeight="1">
-      <c r="A64" s="1">
-        <v>10</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="78" customHeight="1">
-      <c r="A65" s="1">
-        <v>12</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="21">
-      <c r="A66" s="1">
-        <v>13</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>167</v>
+      <c r="D73" s="5" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -13736,11 +14850,11 @@
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A7:D9"/>
-    <mergeCell ref="A10:D38"/>
+    <mergeCell ref="A10:D42"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -13750,21 +14864,21 @@
   <dimension ref="A2:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="23"/>
       <c r="F2" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G2" s="23"/>
     </row>
@@ -13772,19 +14886,19 @@
       <c r="B3" s="23"/>
       <c r="C3" s="23"/>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
     </row>
     <row r="6" spans="1:7">
       <c r="C6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="B7" s="23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="23"/>
     </row>
@@ -13792,24 +14906,24 @@
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="C11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="B12" s="23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C12" s="23"/>
       <c r="F12" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G12" s="23"/>
     </row>
@@ -13821,20 +14935,20 @@
     </row>
     <row r="14" spans="1:7">
       <c r="E14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C17" s="23"/>
     </row>
@@ -13862,8 +14976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{148D1C9D-74CB-1540-A200-08D979518438}">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -13878,7 +14992,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C1" s="25"/>
       <c r="D1" s="26"/>
@@ -13890,7 +15004,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" s="25"/>
       <c r="C4" s="25"/>
@@ -14052,16 +15166,16 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="D35" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -14069,13 +15183,13 @@
         <v>1</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -14083,13 +15197,13 @@
         <v>2</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -14097,13 +15211,13 @@
         <v>3</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -14111,13 +15225,13 @@
         <v>4</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="D39" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -14127,16 +15241,16 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C43" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="89" customHeight="1">
@@ -14144,13 +15258,13 @@
         <v>2</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>37</v>
+        <v>24</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="89" customHeight="1">
@@ -14158,13 +15272,13 @@
         <v>3</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>36</v>
+        <v>24</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -14175,7 +15289,7 @@
     <mergeCell ref="A10:D30"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -14186,7 +15300,7 @@
   <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection sqref="A1:D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -14201,7 +15315,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C1" s="25"/>
       <c r="D1" s="26"/>
@@ -14213,7 +15327,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4" s="25"/>
       <c r="C4" s="25"/>
@@ -14375,16 +15489,16 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="D35" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -14392,13 +15506,13 @@
         <v>1</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -14406,13 +15520,13 @@
         <v>2</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -14422,16 +15536,16 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C41" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="89" customHeight="1">
@@ -14439,13 +15553,13 @@
         <v>2</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D42" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -14457,7 +15571,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -14467,14 +15581,14 @@
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection sqref="A1:D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
     <col min="2" max="2" width="21.28515625" customWidth="1"/>
     <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="53.28515625" customWidth="1"/>
+    <col min="4" max="4" width="49.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -14482,7 +15596,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C1" s="25"/>
       <c r="D1" s="26"/>
@@ -14494,7 +15608,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="33"/>
       <c r="C4" s="33"/>
@@ -14656,16 +15770,16 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="D35" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -14673,13 +15787,13 @@
         <v>1</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -14687,13 +15801,13 @@
         <v>2</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -14701,13 +15815,13 @@
         <v>3</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -14715,13 +15829,13 @@
         <v>4</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -14729,13 +15843,13 @@
         <v>5</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="D40" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -14745,16 +15859,16 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C44" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="28" customHeight="1">
@@ -14762,13 +15876,13 @@
         <v>3</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -14776,13 +15890,13 @@
         <v>4</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -14790,13 +15904,13 @@
         <v>5</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="D47" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -14817,8 +15931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1320CDBD-4C48-9E4B-97CB-C71AE4F94A2C}">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:D30"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -14833,7 +15947,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" s="25"/>
       <c r="D1" s="26"/>
@@ -14845,7 +15959,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="25"/>
       <c r="C4" s="25"/>
@@ -15007,16 +16121,16 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="D35" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -15024,13 +16138,13 @@
         <v>1</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="42">
@@ -15038,13 +16152,13 @@
         <v>2</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>49</v>
+        <v>23</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -15052,13 +16166,13 @@
         <v>3</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="42">
@@ -15066,13 +16180,13 @@
         <v>4</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>50</v>
+        <v>23</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -15080,13 +16194,13 @@
         <v>5</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -15096,16 +16210,16 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C44" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="78" customHeight="1">
@@ -15113,13 +16227,13 @@
         <v>2</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>29</v>
+        <v>23</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="78" customHeight="1">
@@ -15127,13 +16241,13 @@
         <v>4</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>30</v>
+        <v>23</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="78" customHeight="1">
@@ -15141,13 +16255,13 @@
         <v>5</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>48</v>
+        <v>24</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -15168,8 +16282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D039BF3-10E6-E24D-A928-C9758D91BC79}">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection sqref="A1:D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -15184,7 +16298,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C1" s="25"/>
       <c r="D1" s="26"/>
@@ -15196,7 +16310,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B4" s="25"/>
       <c r="C4" s="25"/>
@@ -15358,16 +16472,16 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="D35" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -15375,13 +16489,13 @@
         <v>1</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="42">
@@ -15389,13 +16503,13 @@
         <v>2</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>49</v>
+        <v>23</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -15403,13 +16517,13 @@
         <v>3</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="42">
@@ -15417,13 +16531,13 @@
         <v>4</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>50</v>
+        <v>23</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -15431,13 +16545,13 @@
         <v>5</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -15447,16 +16561,16 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C44" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="78" customHeight="1">
@@ -15464,13 +16578,13 @@
         <v>2</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>29</v>
+        <v>23</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="78" customHeight="1">
@@ -15478,13 +16592,13 @@
         <v>4</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>30</v>
+        <v>23</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="78" customHeight="1">
@@ -15492,13 +16606,13 @@
         <v>5</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>74</v>
+        <v>24</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -15510,521 +16624,601 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0366143-B4D0-7649-98D0-737A3EDFEC18}">
-  <dimension ref="A1:J88"/>
+  <dimension ref="A1:N88"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection sqref="A1:K88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" customWidth="1"/>
-    <col min="6" max="6" width="24.140625" customWidth="1"/>
-    <col min="7" max="10" width="15.5703125" customWidth="1"/>
+    <col min="1" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" customWidth="1"/>
+    <col min="7" max="7" width="24.140625" customWidth="1"/>
+    <col min="8" max="11" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C1" s="25"/>
       <c r="D1" s="25"/>
       <c r="E1" s="25"/>
-      <c r="F1" s="26"/>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="F1" s="25"/>
+      <c r="G1" s="26"/>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B4" s="25"/>
       <c r="C4" s="25"/>
       <c r="D4" s="25"/>
       <c r="E4" s="25"/>
       <c r="F4" s="25"/>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="G4" s="25"/>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="27"/>
       <c r="B7" s="28"/>
       <c r="C7" s="28"/>
       <c r="D7" s="28"/>
       <c r="E7" s="28"/>
       <c r="F7" s="28"/>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="G7" s="28"/>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="29"/>
-      <c r="B8" s="30"/>
+      <c r="B8" s="39"/>
       <c r="C8" s="30"/>
       <c r="D8" s="30"/>
       <c r="E8" s="30"/>
       <c r="F8" s="30"/>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="G8" s="30"/>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="29"/>
-      <c r="B9" s="30"/>
+      <c r="B9" s="39"/>
       <c r="C9" s="30"/>
       <c r="D9" s="30"/>
       <c r="E9" s="30"/>
       <c r="F9" s="30"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="13"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="10"/>
-      <c r="J11" s="14"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="10"/>
-      <c r="J12" s="14"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="10"/>
-      <c r="J13" s="14"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="10"/>
-      <c r="J14" s="14"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="10"/>
-      <c r="J15" s="14"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="10"/>
-      <c r="J16" s="14"/>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="10"/>
-      <c r="J17" s="14"/>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="G9" s="30"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="11"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="8"/>
+      <c r="B11" s="38"/>
+      <c r="K11" s="12"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="8"/>
+      <c r="B12" s="38"/>
+      <c r="K12" s="12"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="8"/>
+      <c r="B13" s="38"/>
+      <c r="K13" s="12"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="8"/>
+      <c r="B14" s="38"/>
+      <c r="K14" s="12"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="8"/>
+      <c r="B15" s="38"/>
+      <c r="K15" s="12"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="8"/>
+      <c r="B16" s="38"/>
+      <c r="K16" s="12"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="8"/>
+      <c r="B17" s="38"/>
+      <c r="K17" s="12"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="B18" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="C18" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="K18" s="12"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="B19" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H18" s="1" t="s">
+      <c r="G19" s="15">
+        <v>43909</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="K19" s="12"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="B20" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G20" s="15">
+        <v>44947</v>
+      </c>
+      <c r="H20" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="I18" s="10"/>
-      <c r="J18" s="14"/>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="C19" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D19" s="1" t="s">
+      <c r="I20" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="K20" s="12"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="B21" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E21" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="E19" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G19" s="17">
-        <v>43909</v>
-      </c>
-      <c r="H19" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="I19" s="20"/>
-      <c r="J19" s="14"/>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="C20" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G20" s="17">
-        <v>44947</v>
-      </c>
-      <c r="H20" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="I20" s="20"/>
-      <c r="J20" s="14"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="C21" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D21" s="18" t="s">
+      <c r="F21" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E21" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="F21" s="1" t="s">
+      <c r="G21" s="17">
+        <v>43932</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="K21" s="12"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="B22" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="G21" s="19">
-        <v>43932</v>
-      </c>
-      <c r="H21" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="I21" s="21"/>
-      <c r="J21" s="14"/>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E22" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G22" s="19">
+      <c r="G22" s="17">
         <v>44823</v>
       </c>
-      <c r="H22" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="I22" s="21"/>
-      <c r="J22" s="14"/>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="10"/>
-      <c r="J23" s="14"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="10"/>
-      <c r="J24" s="14"/>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="10"/>
-      <c r="J25" s="14"/>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="10"/>
-      <c r="J26" s="14"/>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="10"/>
-      <c r="J27" s="14"/>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="11"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="15"/>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="10"/>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="10"/>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="11"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-    </row>
-    <row r="35" spans="1:10">
+      <c r="H22" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="I22" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="K22" s="12"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="8"/>
+      <c r="B23" s="38"/>
+      <c r="K23" s="12"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="8"/>
+      <c r="B24" s="38"/>
+      <c r="K24" s="12"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="8"/>
+      <c r="B25" s="38"/>
+      <c r="K25" s="12"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="8"/>
+      <c r="B26" s="38"/>
+      <c r="K26" s="12"/>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="8"/>
+      <c r="B27" s="38"/>
+      <c r="K27" s="12"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="9"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="13"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="8"/>
+      <c r="B29" s="38"/>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="8"/>
+      <c r="B30" s="38"/>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="9"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36" s="27"/>
       <c r="B36" s="28"/>
       <c r="C36" s="28"/>
       <c r="D36" s="28"/>
       <c r="E36" s="28"/>
       <c r="F36" s="28"/>
-    </row>
-    <row r="37" spans="1:10">
+      <c r="G36" s="28"/>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37" s="29"/>
-      <c r="B37" s="30"/>
+      <c r="B37" s="39"/>
       <c r="C37" s="30"/>
       <c r="D37" s="30"/>
       <c r="E37" s="30"/>
       <c r="F37" s="30"/>
-    </row>
-    <row r="38" spans="1:10">
+      <c r="G37" s="30"/>
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38" s="29"/>
-      <c r="B38" s="30"/>
+      <c r="B38" s="39"/>
       <c r="C38" s="30"/>
       <c r="D38" s="30"/>
       <c r="E38" s="30"/>
       <c r="F38" s="30"/>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="8"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="13"/>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="10"/>
-      <c r="J40" s="14"/>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="10"/>
-      <c r="J41" s="14"/>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="10"/>
-      <c r="J42" s="14"/>
-    </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="10"/>
-      <c r="J43" s="14"/>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="10"/>
-      <c r="J44" s="14"/>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="10"/>
-      <c r="J45" s="14"/>
-    </row>
-    <row r="46" spans="1:10">
-      <c r="A46" s="10"/>
-      <c r="J46" s="14"/>
-    </row>
-    <row r="47" spans="1:10">
+      <c r="G38" s="30"/>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" s="6"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="11"/>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" s="8"/>
+      <c r="B40" s="38"/>
+      <c r="K40" s="12"/>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41" s="8"/>
+      <c r="B41" s="38"/>
+      <c r="K41" s="12"/>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42" s="8"/>
+      <c r="B42" s="38"/>
+      <c r="K42" s="12"/>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43" s="8"/>
+      <c r="B43" s="38"/>
+      <c r="K43" s="12"/>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="A44" s="8"/>
+      <c r="B44" s="38"/>
+      <c r="K44" s="12"/>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45" s="8"/>
+      <c r="B45" s="38"/>
+      <c r="K45" s="12"/>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46" s="8"/>
+      <c r="B46" s="38"/>
+      <c r="K46" s="12"/>
+    </row>
+    <row r="47" spans="1:14">
       <c r="B47" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C47" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C47" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="K47" s="12"/>
+      <c r="N47" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="B48" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C48" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F48" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H47" s="1" t="s">
+      <c r="G48" s="15">
+        <v>43909</v>
+      </c>
+      <c r="H48" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="I48" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="K48" s="12"/>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="B49" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C49" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="D49" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="E49" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G49" s="15">
+        <v>44947</v>
+      </c>
+      <c r="H49" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="I47" s="10"/>
-      <c r="J47" s="14"/>
-    </row>
-    <row r="48" spans="1:10">
-      <c r="B48" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D48" s="1" t="s">
+      <c r="I49" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="K49" s="12"/>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="B50" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C50" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="D50" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E50" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="E48" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G48" s="17">
-        <v>43909</v>
-      </c>
-      <c r="H48" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="I48" s="20"/>
-      <c r="J48" s="14"/>
-    </row>
-    <row r="49" spans="1:10">
-      <c r="B49" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D49" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="E49" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G49" s="17">
-        <v>44947</v>
-      </c>
-      <c r="H49" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="I49" s="20"/>
-      <c r="J49" s="14"/>
-    </row>
-    <row r="50" spans="1:10">
-      <c r="B50" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D50" s="18" t="s">
+      <c r="F50" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E50" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="F50" s="1" t="s">
+      <c r="G50" s="17">
+        <v>43932</v>
+      </c>
+      <c r="H50" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="I50" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="K50" s="12"/>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="B51" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C51" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="G50" s="19">
-        <v>43932</v>
-      </c>
-      <c r="H50" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="I50" s="21"/>
-      <c r="J50" s="14"/>
-    </row>
-    <row r="51" spans="1:10">
-      <c r="B51" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C51" s="1" t="s">
+      <c r="D51" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="E51" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F51" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E51" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G51" s="19">
+      <c r="G51" s="17">
         <v>44823</v>
       </c>
-      <c r="H51" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="I51" s="21"/>
-      <c r="J51" s="14"/>
-    </row>
-    <row r="52" spans="1:10">
-      <c r="A52" s="10"/>
-      <c r="J52" s="14"/>
-    </row>
-    <row r="53" spans="1:10">
-      <c r="A53" s="10"/>
-      <c r="J53" s="14"/>
-    </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="10"/>
-      <c r="J54" s="14"/>
-    </row>
-    <row r="55" spans="1:10">
-      <c r="A55" s="10"/>
-      <c r="J55" s="14"/>
-    </row>
-    <row r="56" spans="1:10">
-      <c r="A56" s="10"/>
-      <c r="J56" s="14"/>
-    </row>
-    <row r="57" spans="1:10">
-      <c r="A57" s="11"/>
-      <c r="B57" s="12"/>
-      <c r="C57" s="12"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="12"/>
-      <c r="H57" s="12"/>
-      <c r="I57" s="12"/>
-      <c r="J57" s="15"/>
-    </row>
-    <row r="58" spans="1:10">
-      <c r="A58" s="10"/>
-    </row>
-    <row r="59" spans="1:10">
-      <c r="A59" s="10"/>
-    </row>
-    <row r="60" spans="1:10">
-      <c r="A60" s="11"/>
-      <c r="B60" s="12"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="12"/>
+      <c r="H51" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="I51" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="K51" s="12"/>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="8"/>
+      <c r="B52" s="38"/>
+      <c r="K52" s="12"/>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="8"/>
+      <c r="B53" s="38"/>
+      <c r="K53" s="12"/>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="8"/>
+      <c r="B54" s="38"/>
+      <c r="K54" s="12"/>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" s="8"/>
+      <c r="B55" s="38"/>
+      <c r="K55" s="12"/>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" s="8"/>
+      <c r="B56" s="38"/>
+      <c r="K56" s="12"/>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" s="9"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="10"/>
+      <c r="J57" s="10"/>
+      <c r="K57" s="13"/>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" s="8"/>
+      <c r="B58" s="38"/>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="8"/>
+      <c r="B59" s="38"/>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" s="9"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
@@ -16033,329 +17227,326 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="C68" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D68" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="E68" s="33"/>
+      <c r="D68" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E68" s="22"/>
     </row>
     <row r="69" spans="1:5" ht="36" customHeight="1">
       <c r="A69" s="1">
         <v>1</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D69" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="E69" s="33"/>
+        <v>22</v>
+      </c>
+      <c r="D69" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="E69" s="26"/>
     </row>
     <row r="70" spans="1:5" ht="36" customHeight="1">
       <c r="A70" s="1">
         <v>2</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D70" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="E70" s="33"/>
+        <v>24</v>
+      </c>
+      <c r="D70" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="E70" s="26"/>
     </row>
     <row r="71" spans="1:5" ht="36" customHeight="1">
       <c r="A71" s="1">
         <v>3</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>125</v>
+        <v>166</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D71" s="33" t="s">
-        <v>126</v>
-      </c>
-      <c r="E71" s="33"/>
+        <v>23</v>
+      </c>
+      <c r="D71" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="E71" s="36"/>
     </row>
     <row r="72" spans="1:5" ht="46" customHeight="1">
       <c r="A72" s="1">
         <v>4</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D72" s="34" t="s">
-        <v>113</v>
-      </c>
-      <c r="E72" s="33"/>
+        <v>111</v>
+      </c>
+      <c r="E72" s="36"/>
     </row>
     <row r="73" spans="1:5" ht="45" customHeight="1">
       <c r="A73" s="1">
         <v>5</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D73" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="E73" s="33"/>
+        <v>112</v>
+      </c>
+      <c r="E73" s="36"/>
     </row>
     <row r="74" spans="1:5" ht="45" customHeight="1">
       <c r="A74" s="1">
         <v>6</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D74" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="E74" s="33"/>
+        <v>113</v>
+      </c>
+      <c r="E74" s="36"/>
     </row>
     <row r="75" spans="1:5" ht="45" customHeight="1">
       <c r="A75" s="1">
         <v>7</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D75" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="E75" s="33"/>
+        <v>114</v>
+      </c>
+      <c r="E75" s="36"/>
     </row>
     <row r="76" spans="1:5" ht="45" customHeight="1">
       <c r="A76" s="1">
         <v>8</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D76" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="E76" s="33"/>
+        <v>115</v>
+      </c>
+      <c r="E76" s="36"/>
     </row>
     <row r="77" spans="1:5" ht="45" customHeight="1">
       <c r="A77" s="1">
         <v>9</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D77" s="34" t="s">
-        <v>118</v>
-      </c>
-      <c r="E77" s="33"/>
-    </row>
-    <row r="78" spans="1:5" ht="36" customHeight="1">
+        <v>116</v>
+      </c>
+      <c r="E77" s="36"/>
+    </row>
+    <row r="78" spans="1:5" ht="45" customHeight="1">
       <c r="A78" s="1">
         <v>10</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D78" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="E78" s="33"/>
+        <v>62</v>
+      </c>
+      <c r="D78" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="E78" s="36"/>
     </row>
     <row r="79" spans="1:5" ht="36" customHeight="1">
       <c r="A79" s="1">
         <v>11</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D79" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="E79" s="33"/>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82" t="s">
+        <v>161</v>
+      </c>
+      <c r="D79" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="E79" s="26"/>
+    </row>
+    <row r="80" spans="1:5" ht="36" customHeight="1">
+      <c r="A80" s="1">
+        <v>12</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D80" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="E80" s="26"/>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
-      <c r="A83" s="1" t="s">
+    <row r="84" spans="1:6">
+      <c r="A84" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B84" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C83" s="1" t="s">
+      <c r="C84" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D84" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D83" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="E83" s="25"/>
-      <c r="F83" s="26"/>
-    </row>
-    <row r="84" spans="1:6" ht="78" customHeight="1">
-      <c r="A84" s="1">
-        <v>2</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D84" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="E84" s="36"/>
-      <c r="F84" s="37"/>
+      <c r="E84" s="20"/>
+      <c r="F84" s="21"/>
     </row>
     <row r="85" spans="1:6" ht="78" customHeight="1">
       <c r="A85" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D85" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="E85" s="36"/>
-      <c r="F85" s="37"/>
+        <v>24</v>
+      </c>
+      <c r="D85" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="E85" s="35"/>
+      <c r="F85" s="36"/>
     </row>
     <row r="86" spans="1:6" ht="78" customHeight="1">
       <c r="A86" s="1">
         <v>9</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D86" s="35" t="s">
-        <v>119</v>
-      </c>
-      <c r="E86" s="36"/>
-      <c r="F86" s="37"/>
-    </row>
-    <row r="87" spans="1:6" ht="48" customHeight="1">
+        <v>62</v>
+      </c>
+      <c r="D86" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="E86" s="35"/>
+      <c r="F86" s="36"/>
+    </row>
+    <row r="87" spans="1:6" ht="78" customHeight="1">
       <c r="A87" s="1">
         <v>10</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D87" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="E87" s="36"/>
-      <c r="F87" s="37"/>
+        <v>62</v>
+      </c>
+      <c r="D87" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="E87" s="35"/>
+      <c r="F87" s="36"/>
     </row>
     <row r="88" spans="1:6" ht="48" customHeight="1">
       <c r="A88" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D88" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="E88" s="36"/>
-      <c r="F88" s="37"/>
+        <v>24</v>
+      </c>
+      <c r="D88" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="E88" s="35"/>
+      <c r="F88" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="20">
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="D77:E77"/>
     <mergeCell ref="D78:E78"/>
     <mergeCell ref="D79:E79"/>
-    <mergeCell ref="D87:F87"/>
-    <mergeCell ref="D88:F88"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="D83:F83"/>
-    <mergeCell ref="D84:F84"/>
-    <mergeCell ref="D85:F85"/>
-    <mergeCell ref="D86:F86"/>
-    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D70:E70"/>
     <mergeCell ref="D73:E73"/>
     <mergeCell ref="D74:E74"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A7:F9"/>
-    <mergeCell ref="A36:F38"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D70:E70"/>
     <mergeCell ref="D71:E71"/>
-    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A7:G9"/>
+    <mergeCell ref="A36:G38"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="D87:F87"/>
+    <mergeCell ref="D85:F85"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="D86:F86"/>
+    <mergeCell ref="D88:F88"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="E19" r:id="rId1" xr:uid="{89C62093-8601-B348-99BE-FB664A2351AF}"/>
-    <hyperlink ref="E20:E22" r:id="rId2" display="https://aaaaaaaaaaaa" xr:uid="{D1465C3E-33ED-2343-9774-33382493467E}"/>
-    <hyperlink ref="E48" r:id="rId3" xr:uid="{1A67086E-71AC-B34E-8423-7668A3804CFF}"/>
-    <hyperlink ref="E49:E51" r:id="rId4" display="https://aaaaaaaaaaaa" xr:uid="{B2766590-068C-6547-B682-F0C820D9779E}"/>
+    <hyperlink ref="E48" r:id="rId1" xr:uid="{1A67086E-71AC-B34E-8423-7668A3804CFF}"/>
+    <hyperlink ref="E49:E51" r:id="rId2" display="https://aaaaaaaaaaaa" xr:uid="{B2766590-068C-6547-B682-F0C820D9779E}"/>
+    <hyperlink ref="E20:E22" r:id="rId3" display="https://aaaaaaaaaaaa" xr:uid="{D1465C3E-33ED-2343-9774-33382493467E}"/>
+    <hyperlink ref="E19" r:id="rId4" xr:uid="{89C62093-8601-B348-99BE-FB664A2351AF}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C80330D-F1EF-064B-A5CD-1E35C360DBDA}">
-  <dimension ref="A1:D66"/>
+  <dimension ref="A1:D73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H64" sqref="H64"/>
+      <selection sqref="A1:D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -16370,7 +17561,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="C1" s="25"/>
       <c r="D1" s="26"/>
@@ -16382,7 +17573,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="24" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="B4" s="25"/>
       <c r="C4" s="25"/>
@@ -16447,7 +17638,7 @@
       <c r="C15" s="30"/>
       <c r="D15" s="30"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" ht="21" customHeight="1">
       <c r="A16" s="29"/>
       <c r="B16" s="30"/>
       <c r="C16" s="30"/>
@@ -16580,327 +17771,393 @@
       <c r="D37" s="30"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="31"/>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
+      <c r="A38" s="29"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="29"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="29"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="29"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" t="s">
+      <c r="A42" s="31"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="32"/>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="1" t="s">
+    <row r="47" spans="1:4">
+      <c r="A47" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="1">
-        <v>1</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="21">
-      <c r="A45" s="1">
-        <v>2</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="1">
-        <v>3</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="1">
-        <v>4</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="D47" s="1" t="s">
-        <v>105</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="21">
       <c r="A49" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>105</v>
+        <v>22</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D50" s="22" t="s">
-        <v>152</v>
+        <v>23</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="21">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D52" s="6" t="s">
-        <v>153</v>
+      <c r="D52" s="1" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D53" s="22" t="s">
-        <v>154</v>
+        <v>22</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="1">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="1">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D55" s="22" t="s">
-        <v>155</v>
+        <v>22</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="1">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>33</v>
+        <v>133</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>156</v>
+        <v>23</v>
+      </c>
+      <c r="D56" s="18" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="1">
+        <v>10</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="21">
+      <c r="A58" s="1">
+        <v>11</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="1">
+        <v>12</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D59" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="1">
+        <v>13</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="1">
         <v>14</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="63">
-      <c r="A61" s="1">
-        <v>3</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>138</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="63">
+        <v>110</v>
+      </c>
+      <c r="D61" s="18" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>140</v>
+        <v>32</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D62" s="6" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="78" customHeight="1">
+      <c r="D62" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1">
+        <v>16</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="63">
+      <c r="A67" s="1">
+        <v>3</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="63">
+      <c r="A68" s="1">
+        <v>5</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="63">
+      <c r="A69" s="1">
         <v>7</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B69" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="78" customHeight="1">
+      <c r="A70" s="1">
+        <v>9</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="78" customHeight="1">
+      <c r="A71" s="1">
+        <v>12</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D71" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C63" s="1" t="s">
+    </row>
+    <row r="72" spans="1:4" ht="78" customHeight="1">
+      <c r="A72" s="1">
+        <v>14</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="21">
+      <c r="A73" s="1">
+        <v>15</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D63" s="6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="78" customHeight="1">
-      <c r="A64" s="1">
-        <v>10</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="78" customHeight="1">
-      <c r="A65" s="1">
-        <v>12</v>
-      </c>
-      <c r="B65" s="1" t="s">
+      <c r="D73" s="5" t="s">
         <v>151</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="21">
-      <c r="A66" s="1">
-        <v>13</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -16908,10 +18165,10 @@
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A7:D9"/>
-    <mergeCell ref="A10:D38"/>
+    <mergeCell ref="A10:D42"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
